--- a/Functionalities/Stock/data/dummy_stock_limits.xlsx
+++ b/Functionalities/Stock/data/dummy_stock_limits.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>item</t>
   </si>
@@ -26,94 +26,85 @@
     <t>maximum_stock</t>
   </si>
   <si>
-    <t>item_0</t>
-  </si>
-  <si>
-    <t>item_1</t>
-  </si>
-  <si>
-    <t>item_2</t>
-  </si>
-  <si>
-    <t>item_3</t>
-  </si>
-  <si>
-    <t>item_4</t>
-  </si>
-  <si>
-    <t>item_5</t>
-  </si>
-  <si>
-    <t>item_6</t>
-  </si>
-  <si>
-    <t>item_7</t>
-  </si>
-  <si>
-    <t>item_8</t>
-  </si>
-  <si>
-    <t>item_9</t>
-  </si>
-  <si>
-    <t>item_10</t>
-  </si>
-  <si>
-    <t>item_11</t>
-  </si>
-  <si>
-    <t>item_12</t>
-  </si>
-  <si>
-    <t>item_13</t>
-  </si>
-  <si>
-    <t>item_14</t>
-  </si>
-  <si>
-    <t>item_15</t>
-  </si>
-  <si>
-    <t>item_16</t>
-  </si>
-  <si>
-    <t>item_17</t>
-  </si>
-  <si>
-    <t>item_18</t>
-  </si>
-  <si>
-    <t>item_19</t>
-  </si>
-  <si>
-    <t>item_20</t>
-  </si>
-  <si>
-    <t>item_21</t>
-  </si>
-  <si>
-    <t>item_22</t>
-  </si>
-  <si>
-    <t>item_23</t>
-  </si>
-  <si>
-    <t>item_24</t>
-  </si>
-  <si>
-    <t>item_25</t>
-  </si>
-  <si>
-    <t>item_26</t>
-  </si>
-  <si>
-    <t>item_27</t>
-  </si>
-  <si>
-    <t>item_28</t>
-  </si>
-  <si>
-    <t>item_29</t>
+    <t>MCER017</t>
+  </si>
+  <si>
+    <t>MCER018</t>
+  </si>
+  <si>
+    <t>MCER020</t>
+  </si>
+  <si>
+    <t>MCER021</t>
+  </si>
+  <si>
+    <t>MCER022</t>
+  </si>
+  <si>
+    <t>MCER026</t>
+  </si>
+  <si>
+    <t>MCER027</t>
+  </si>
+  <si>
+    <t>MCER028</t>
+  </si>
+  <si>
+    <t>MCER029</t>
+  </si>
+  <si>
+    <t>MCER030</t>
+  </si>
+  <si>
+    <t>MCER031</t>
+  </si>
+  <si>
+    <t>MCER032</t>
+  </si>
+  <si>
+    <t>MCER033</t>
+  </si>
+  <si>
+    <t>MCER034</t>
+  </si>
+  <si>
+    <t>MCER035</t>
+  </si>
+  <si>
+    <t>MCER036</t>
+  </si>
+  <si>
+    <t>MCER037</t>
+  </si>
+  <si>
+    <t>MCER038</t>
+  </si>
+  <si>
+    <t>MCER039</t>
+  </si>
+  <si>
+    <t>MCER040</t>
+  </si>
+  <si>
+    <t>MCER041</t>
+  </si>
+  <si>
+    <t>MCER043</t>
+  </si>
+  <si>
+    <t>MCER046</t>
+  </si>
+  <si>
+    <t>MCER047</t>
+  </si>
+  <si>
+    <t>MCER051</t>
+  </si>
+  <si>
+    <t>MCER057</t>
+  </si>
+  <si>
+    <t>MCER067</t>
   </si>
 </sst>
 </file>
@@ -471,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C2">
-        <v>730</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -504,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>440</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -515,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>621</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -526,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>363</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -537,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C6">
-        <v>667</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -548,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>652</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -559,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C8">
-        <v>751</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -570,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C9">
-        <v>706</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -581,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -592,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>159</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -603,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>773</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -614,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -625,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>528</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -636,10 +627,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>717</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -647,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C16">
-        <v>372</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -658,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>126</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -669,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C18">
-        <v>136</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -680,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C19">
-        <v>238</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -691,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -702,10 +693,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>625</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -713,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>397</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -724,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C23">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -735,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C24">
-        <v>805</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -746,10 +737,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C25">
-        <v>484</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -757,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>381</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -768,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C27">
-        <v>928</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -779,43 +770,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C28">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>68</v>
-      </c>
-      <c r="C29">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>84</v>
-      </c>
-      <c r="C30">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,10 +805,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>441</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -858,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C3">
-        <v>577</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -869,10 +827,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>623</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -880,10 +838,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -891,10 +849,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C6">
-        <v>243</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -902,10 +860,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C7">
-        <v>796</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -913,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>747</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -924,10 +882,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>161</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -935,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>258</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -946,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>993</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -957,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>204</v>
+        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -968,10 +926,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>636</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -979,10 +937,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>344</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -990,10 +948,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C15">
-        <v>917</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1001,10 +959,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1012,10 +970,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>648</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1023,10 +981,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C18">
-        <v>135</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1034,10 +992,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>245</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1045,10 +1003,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1056,10 +1014,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C21">
-        <v>725</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1067,10 +1025,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>960</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1078,10 +1036,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C23">
-        <v>914</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1089,10 +1047,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24">
-        <v>505</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1100,10 +1058,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>599</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1111,10 +1069,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>355</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1122,10 +1080,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>861</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1133,43 +1091,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C28">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>67</v>
-      </c>
-      <c r="C30">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>65</v>
-      </c>
-      <c r="C31">
-        <v>192</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
